--- a/analises/2023/_apoio/8/sint_resumo_por_genero_2023.xlsx
+++ b/analises/2023/_apoio/8/sint_resumo_por_genero_2023.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+  <si>
+    <t>geral_modalidade</t>
+  </si>
   <si>
     <t>autoria_classificacao</t>
   </si>
@@ -22,94 +25,40 @@
     <t>total</t>
   </si>
   <si>
+    <t>total_sucesso</t>
+  </si>
+  <si>
+    <t>total_falha</t>
+  </si>
+  <si>
+    <t>particip</t>
+  </si>
+  <si>
+    <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>valor_sucesso</t>
+  </si>
+  <si>
+    <t>media_sucesso</t>
+  </si>
+  <si>
+    <t>std_sucesso</t>
+  </si>
+  <si>
+    <t>min_sucesso</t>
+  </si>
+  <si>
+    <t>max_sucesso</t>
+  </si>
+  <si>
     <t>aon</t>
   </si>
   <si>
-    <t>aon_sucesso</t>
-  </si>
-  <si>
-    <t>aon_falha</t>
-  </si>
-  <si>
-    <t>aon_particip</t>
-  </si>
-  <si>
-    <t>aon_taxa_sucesso</t>
-  </si>
-  <si>
-    <t>aon_valor_sucesso</t>
-  </si>
-  <si>
-    <t>aon_media_sucesso</t>
-  </si>
-  <si>
-    <t>aon_std_sucesso</t>
-  </si>
-  <si>
-    <t>aon_min_sucesso</t>
-  </si>
-  <si>
-    <t>aon_max_sucesso</t>
-  </si>
-  <si>
     <t>flex</t>
   </si>
   <si>
-    <t>flex_sucesso</t>
-  </si>
-  <si>
-    <t>flex_falha</t>
-  </si>
-  <si>
-    <t>flex_particip</t>
-  </si>
-  <si>
-    <t>flex_taxa_sucesso</t>
-  </si>
-  <si>
-    <t>flex_valor_sucesso</t>
-  </si>
-  <si>
-    <t>flex_media_sucesso</t>
-  </si>
-  <si>
-    <t>flex_std_sucesso</t>
-  </si>
-  <si>
-    <t>flex_min_sucesso</t>
-  </si>
-  <si>
-    <t>flex_max_sucesso</t>
-  </si>
-  <si>
     <t>sub</t>
-  </si>
-  <si>
-    <t>sub_sucesso</t>
-  </si>
-  <si>
-    <t>sub_falha</t>
-  </si>
-  <si>
-    <t>sub_particip</t>
-  </si>
-  <si>
-    <t>sub_taxa_sucesso</t>
-  </si>
-  <si>
-    <t>sub_valor_sucesso</t>
-  </si>
-  <si>
-    <t>sub_media_sucesso</t>
-  </si>
-  <si>
-    <t>sub_std_sucesso</t>
-  </si>
-  <si>
-    <t>sub_min_sucesso</t>
-  </si>
-  <si>
-    <t>sub_max_sucesso</t>
   </si>
   <si>
     <t>coletivo</t>
@@ -488,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,21 +449,10 @@
     <col min="9" max="9" width="9.140625" style="2"/>
     <col min="10" max="10" width="9.140625" style="2"/>
     <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="2"/>
-    <col min="19" max="19" width="9.140625" style="2"/>
-    <col min="20" max="20" width="9.140625" style="2"/>
-    <col min="21" max="21" width="9.140625" style="2"/>
-    <col min="26" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="9.140625" style="1"/>
-    <col min="28" max="28" width="9.140625" style="2"/>
-    <col min="29" max="29" width="9.140625" style="2"/>
-    <col min="30" max="30" width="9.140625" style="2"/>
-    <col min="31" max="31" width="9.140625" style="2"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -551,73 +489,13 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2">
-        <v>144</v>
       </c>
       <c r="C2">
         <v>44</v>
@@ -646,76 +524,16 @@
       <c r="K2" s="2">
         <v>4520.873062637543</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>111934.9031053756</v>
       </c>
-      <c r="M2">
-        <v>72</v>
-      </c>
-      <c r="N2">
-        <v>69</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.04904632152588556</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="R2" s="2">
-        <v>1479515.330087252</v>
-      </c>
-      <c r="S2" s="2">
-        <v>21442.25116068481</v>
-      </c>
-      <c r="T2" s="2">
-        <v>34235.40069887554</v>
-      </c>
-      <c r="U2" s="2">
-        <v>29.81192695893366</v>
-      </c>
-      <c r="V2">
-        <v>169836.9145144388</v>
-      </c>
-      <c r="W2">
-        <v>28</v>
-      </c>
-      <c r="X2">
-        <v>7</v>
-      </c>
-      <c r="Y2">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0.04093567251461988</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>1146.907757768185</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>163.843965395455</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>138.0196025252858</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>32.56218573781985</v>
-      </c>
-      <c r="AF2">
-        <v>353.5789934980466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>566</v>
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
         <v>117</v>
@@ -744,76 +562,16 @@
       <c r="K3" s="2">
         <v>54.53892516702949</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>264585.9073482947</v>
       </c>
-      <c r="M3">
-        <v>440</v>
-      </c>
-      <c r="N3">
-        <v>440</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.2997275204359673</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2">
-        <v>9259515.000981268</v>
-      </c>
-      <c r="S3" s="2">
-        <v>21044.35227495743</v>
-      </c>
-      <c r="T3" s="2">
-        <v>46143.04061102023</v>
-      </c>
-      <c r="U3" s="2">
-        <v>34.74344187043801</v>
-      </c>
-      <c r="V3">
-        <v>708972.7845446636</v>
-      </c>
-      <c r="W3">
-        <v>9</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="Y3">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0.0131578947368421</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>1022.282285906739</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>511.1411429533696</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>38.60499948787582</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>483.8432860277894</v>
-      </c>
-      <c r="AF3">
-        <v>538.4389998789497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
-        <v>460</v>
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
       <c r="C4">
         <v>209</v>
@@ -842,76 +600,16 @@
       <c r="K4" s="2">
         <v>41.81688448509265</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>537544.5528256212</v>
       </c>
-      <c r="M4">
-        <v>182</v>
-      </c>
-      <c r="N4">
-        <v>176</v>
-      </c>
-      <c r="O4">
-        <v>6</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.1239782016348774</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.967032967032967</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1145985.994178716</v>
-      </c>
-      <c r="S4" s="2">
-        <v>6511.284057833613</v>
-      </c>
-      <c r="T4" s="2">
-        <v>6521.39877060496</v>
-      </c>
-      <c r="U4" s="2">
-        <v>35.53279454902379</v>
-      </c>
-      <c r="V4">
-        <v>29736.68915792071</v>
-      </c>
-      <c r="W4">
-        <v>69</v>
-      </c>
-      <c r="X4">
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="Y4">
-        <v>51</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0.1008771929824561</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>5551.368744100646</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>308.4093746722581</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>399.3649266622472</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>7.154956142241136</v>
-      </c>
-      <c r="AF4">
-        <v>1753.365733305352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5">
-        <v>1823</v>
       </c>
       <c r="C5">
         <v>959</v>
@@ -940,76 +638,16 @@
       <c r="K5" s="2">
         <v>94.898114598278</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>679297.6600721752</v>
       </c>
-      <c r="M5">
-        <v>763</v>
-      </c>
-      <c r="N5">
-        <v>691</v>
-      </c>
-      <c r="O5">
-        <v>72</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.5197547683923706</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.9056356487549148</v>
-      </c>
-      <c r="R5" s="2">
-        <v>6465887.695217357</v>
-      </c>
-      <c r="S5" s="2">
-        <v>9357.290441703844</v>
-      </c>
-      <c r="T5" s="2">
-        <v>27421.04653337889</v>
-      </c>
-      <c r="U5" s="2">
-        <v>10.77163914429046</v>
-      </c>
-      <c r="V5">
-        <v>442290.1113560894</v>
-      </c>
-      <c r="W5">
-        <v>101</v>
-      </c>
-      <c r="X5">
-        <v>25</v>
-      </c>
-      <c r="Y5">
-        <v>76</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0.1476608187134503</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0.2475247524752475</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>9304.802663330058</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>372.1921065332023</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>661.5791386661336</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>6.098311514417047</v>
-      </c>
-      <c r="AF5">
-        <v>2998.544454390609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>494</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -1038,67 +676,387 @@
       <c r="K6" s="2">
         <v>584.9223719501611</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>1720.659275370021</v>
       </c>
-      <c r="M6">
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.04904632152588556</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1479515.330087252</v>
+      </c>
+      <c r="I7" s="2">
+        <v>21442.25116068481</v>
+      </c>
+      <c r="J7" s="2">
+        <v>34235.40069887554</v>
+      </c>
+      <c r="K7" s="2">
+        <v>29.81192695893366</v>
+      </c>
+      <c r="L7" s="2">
+        <v>169836.9145144388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>440</v>
+      </c>
+      <c r="D8">
+        <v>440</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.2997275204359673</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>9259515.000981268</v>
+      </c>
+      <c r="I8" s="2">
+        <v>21044.35227495743</v>
+      </c>
+      <c r="J8" s="2">
+        <v>46143.04061102023</v>
+      </c>
+      <c r="K8" s="2">
+        <v>34.74344187043801</v>
+      </c>
+      <c r="L8" s="2">
+        <v>708972.7845446636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>182</v>
+      </c>
+      <c r="D9">
+        <v>176</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.1239782016348774</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.967032967032967</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1145985.994178716</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6511.284057833613</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6521.39877060496</v>
+      </c>
+      <c r="K9" s="2">
+        <v>35.53279454902379</v>
+      </c>
+      <c r="L9" s="2">
+        <v>29736.68915792071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>763</v>
+      </c>
+      <c r="D10">
+        <v>691</v>
+      </c>
+      <c r="E10">
+        <v>72</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.5197547683923706</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.9056356487549148</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6465887.695217357</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9357.290441703844</v>
+      </c>
+      <c r="J10" s="2">
+        <v>27421.04653337889</v>
+      </c>
+      <c r="K10" s="2">
+        <v>10.77163914429046</v>
+      </c>
+      <c r="L10" s="2">
+        <v>442290.1113560894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
         <v>11</v>
       </c>
-      <c r="N6">
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="O6">
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="P6" s="1">
+      <c r="F11" s="1">
         <v>0.007493188010899182</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="G11" s="1">
         <v>0.6363636363636364</v>
       </c>
-      <c r="R6" s="2">
+      <c r="H11" s="2">
         <v>11227.91709450537</v>
       </c>
-      <c r="S6" s="2">
+      <c r="I11" s="2">
         <v>1603.98815635791</v>
       </c>
-      <c r="T6" s="2">
+      <c r="J11" s="2">
         <v>2112.496775736096</v>
       </c>
-      <c r="U6" s="2">
+      <c r="K11" s="2">
         <v>42.35779660756832</v>
       </c>
-      <c r="V6">
+      <c r="L11" s="2">
         <v>5515.844600589859</v>
       </c>
-      <c r="W6">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.04093567251461988</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1146.907757768185</v>
+      </c>
+      <c r="I12" s="2">
+        <v>163.843965395455</v>
+      </c>
+      <c r="J12" s="2">
+        <v>138.0196025252858</v>
+      </c>
+      <c r="K12" s="2">
+        <v>32.56218573781985</v>
+      </c>
+      <c r="L12" s="2">
+        <v>353.5789934980466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.0131578947368421</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1022.282285906739</v>
+      </c>
+      <c r="I13" s="2">
+        <v>511.1411429533696</v>
+      </c>
+      <c r="J13" s="2">
+        <v>38.60499948787582</v>
+      </c>
+      <c r="K13" s="2">
+        <v>483.8432860277894</v>
+      </c>
+      <c r="L13" s="2">
+        <v>538.4389998789497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.1008771929824561</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5551.368744100646</v>
+      </c>
+      <c r="I14" s="2">
+        <v>308.4093746722581</v>
+      </c>
+      <c r="J14" s="2">
+        <v>399.3649266622472</v>
+      </c>
+      <c r="K14" s="2">
+        <v>7.154956142241136</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1753.365733305352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>101</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.1476608187134503</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.2475247524752475</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9304.802663330058</v>
+      </c>
+      <c r="I15" s="2">
+        <v>372.1921065332023</v>
+      </c>
+      <c r="J15" s="2">
+        <v>661.5791386661336</v>
+      </c>
+      <c r="K15" s="2">
+        <v>6.098311514417047</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2998.544454390609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
         <v>477</v>
       </c>
-      <c r="X6">
+      <c r="D16">
         <v>100</v>
       </c>
-      <c r="Y6">
+      <c r="E16">
         <v>377</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="F16" s="1">
         <v>0.6973684210526315</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="G16" s="1">
         <v>0.209643605870021</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="H16" s="2">
         <v>26161.59630367918</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="I16" s="2">
         <v>261.6159630367918</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="J16" s="2">
         <v>711.5241734210925</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="K16" s="2">
         <v>1.087396962410123</v>
       </c>
-      <c r="AF6">
+      <c r="L16" s="2">
         <v>5087.076865717208</v>
       </c>
     </row>
